--- a/inst/extdata/C_Sample_Input_Simple_corrected.xlsx
+++ b/inst/extdata/C_Sample_Input_Simple_corrected.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="48">
   <si>
     <t xml:space="preserve">Compound</t>
   </si>
@@ -98,24 +98,6 @@
     <t xml:space="preserve">C6H14O12P2</t>
   </si>
   <si>
-    <t xml:space="preserve">C6H14O12P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H14O12P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H14O12P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H14O12P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H14O12P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H14O12P8</t>
-  </si>
-  <si>
     <t xml:space="preserve">C13-label-6</t>
   </si>
   <si>
@@ -167,43 +149,13 @@
     <t xml:space="preserve">C21H29N7O14P2</t>
   </si>
   <si>
-    <t xml:space="preserve">C21H29N7O14P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H29N7O14P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H29N7O14P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H29N7O14P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H29N7O14P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H29N7O14P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H29N7O14P9</t>
-  </si>
-  <si>
     <t xml:space="preserve">C13-label-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H29N7O14P10</t>
   </si>
   <si>
     <t xml:space="preserve">C13-label-8</t>
   </si>
   <si>
-    <t xml:space="preserve">C21H29N7O14P11</t>
-  </si>
-  <si>
     <t xml:space="preserve">C13-label-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H29N7O14P12</t>
   </si>
   <si>
     <t xml:space="preserve">C13-label-10</t>
@@ -213,36 +165,6 @@
   </si>
   <si>
     <t xml:space="preserve">C21H27N7O14P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H27N7O14P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H27N7O14P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H27N7O14P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H27N7O14P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H27N7O14P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H27N7O14P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H27N7O14P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H27N7O14P10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H27N7O14P11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H27N7O14P12</t>
   </si>
   <si>
     <t xml:space="preserve">C_Label</t>
@@ -361,16 +283,18 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:K100 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -446,7 +370,7 @@
         <v>129523.24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -484,7 +408,7 @@
         <v>20391.48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -522,7 +446,7 @@
         <v>646309.62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -560,7 +484,7 @@
         <v>29350.11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -598,7 +522,7 @@
         <v>25988.45</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -636,7 +560,7 @@
         <v>1295.59</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>20</v>
       </c>
@@ -674,7 +598,7 @@
         <v>173.95</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>20</v>
       </c>
@@ -712,7 +636,7 @@
         <v>2759.29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>20</v>
       </c>
@@ -750,7 +674,7 @@
         <v>46085.94</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
@@ -788,7 +712,7 @@
         <v>2594.58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>20</v>
       </c>
@@ -826,7 +750,7 @@
         <v>1263.65</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>22</v>
       </c>
@@ -864,12 +788,12 @@
         <v>10288.08</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>15</v>
@@ -902,12 +826,12 @@
         <v>16146.92</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>16</v>
@@ -940,12 +864,12 @@
         <v>687899.56</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>17</v>
@@ -978,12 +902,12 @@
         <v>32063.44</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>18</v>
@@ -1016,12 +940,12 @@
         <v>57586.75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>19</v>
@@ -1054,15 +978,15 @@
         <v>1370.55</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>318.1</v>
@@ -1092,12 +1016,12 @@
         <v>864.74</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>14</v>
@@ -1130,12 +1054,12 @@
         <v>12676.18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>15</v>
@@ -1168,12 +1092,12 @@
         <v>1013.89</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>16</v>
@@ -1206,12 +1130,12 @@
         <v>20121.04</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>14</v>
@@ -1244,12 +1168,12 @@
         <v>349930.78</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>15</v>
@@ -1282,12 +1206,12 @@
         <v>26938.23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>16</v>
@@ -1320,12 +1244,12 @@
         <v>584659.88</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>17</v>
@@ -1358,12 +1282,12 @@
         <v>3941.98</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>14</v>
@@ -1396,12 +1320,12 @@
         <v>120273.02</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>15</v>
@@ -1434,12 +1358,12 @@
         <v>8222.99</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>16</v>
@@ -1472,12 +1396,12 @@
         <v>120272.85</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>17</v>
@@ -1510,12 +1434,12 @@
         <v>887.75</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>14</v>
@@ -1548,12 +1472,12 @@
         <v>10539.17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>15</v>
@@ -1586,12 +1510,12 @@
         <v>179.93</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>16</v>
@@ -1624,12 +1548,12 @@
         <v>11773.04</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>14</v>
@@ -1662,12 +1586,12 @@
         <v>675798.31</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>15</v>
@@ -1700,12 +1624,12 @@
         <v>60387.06</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>16</v>
@@ -1738,12 +1662,12 @@
         <v>792328.75</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>17</v>
@@ -1776,12 +1700,12 @@
         <v>13292.05</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>14</v>
@@ -1814,12 +1738,12 @@
         <v>4175.57</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>15</v>
@@ -1852,12 +1776,12 @@
         <v>103744.27</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>16</v>
@@ -1890,12 +1814,12 @@
         <v>24016.71</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>17</v>
@@ -1928,12 +1852,12 @@
         <v>63277.56</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>18</v>
@@ -1966,12 +1890,12 @@
         <v>17665.5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>19</v>
@@ -2004,12 +1928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>14</v>
@@ -2042,12 +1966,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>15</v>
@@ -2080,12 +2004,12 @@
         <v>640.86</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>16</v>
@@ -2118,12 +2042,12 @@
         <v>39082.5</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>17</v>
@@ -2156,12 +2080,12 @@
         <v>10595.05</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>18</v>
@@ -2194,12 +2118,12 @@
         <v>12445.14</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>19</v>
@@ -2232,12 +2156,12 @@
         <v>6587.75</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>14</v>
@@ -2270,12 +2194,12 @@
         <v>1254.73</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>15</v>
@@ -2308,12 +2232,12 @@
         <v>3516.78</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>16</v>
@@ -2346,12 +2270,12 @@
         <v>12674.22</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>17</v>
@@ -2384,12 +2308,12 @@
         <v>22015.65</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>18</v>
@@ -2422,12 +2346,12 @@
         <v>27498.91</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>19</v>
@@ -2460,15 +2384,15 @@
         <v>26744.84</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>82076.09</v>
@@ -2498,15 +2422,15 @@
         <v>21209.09</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>40775.71</v>
@@ -2536,15 +2460,15 @@
         <v>13980.57</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>17112.08</v>
@@ -2574,15 +2498,15 @@
         <v>7630.63</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>4965.55</v>
@@ -2612,15 +2536,15 @@
         <v>2672.54</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1370.1</v>
@@ -2650,12 +2574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>14</v>
@@ -2688,12 +2612,12 @@
         <v>5897.48</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>15</v>
@@ -2726,12 +2650,12 @@
         <v>11686.93</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>16</v>
@@ -2764,12 +2688,12 @@
         <v>43247.27</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>17</v>
@@ -2802,12 +2726,12 @@
         <v>69305.46</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>18</v>
@@ -2840,12 +2764,12 @@
         <v>97636.48</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>19</v>
@@ -2878,15 +2802,15 @@
         <v>96477.23</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>56787.7</v>
@@ -2916,15 +2840,15 @@
         <v>71831.13</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>32207.16</v>
@@ -2954,15 +2878,15 @@
         <v>45528.07</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>14669.86</v>
@@ -2992,15 +2916,15 @@
         <v>23592.28</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>3379.79</v>
@@ -3030,15 +2954,15 @@
         <v>8049.98</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>488.7</v>
@@ -3086,8 +3010,8 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:K100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B:B A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3100,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3867,7 +3791,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -3902,7 +3826,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
@@ -3937,7 +3861,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2</v>
@@ -3972,7 +3896,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>3</v>
@@ -4007,7 +3931,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -4042,7 +3966,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -4077,7 +4001,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2</v>
@@ -4112,7 +4036,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>3</v>
@@ -4147,7 +4071,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -4182,7 +4106,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -4217,7 +4141,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2</v>
@@ -4252,7 +4176,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3</v>
@@ -4287,7 +4211,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -4322,7 +4246,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -4357,7 +4281,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -4392,7 +4316,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3</v>
@@ -4427,7 +4351,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -4462,7 +4386,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -4497,7 +4421,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2</v>
@@ -4532,7 +4456,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>3</v>
@@ -4567,7 +4491,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -4602,7 +4526,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -4637,7 +4561,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2</v>
@@ -4672,7 +4596,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>3</v>
@@ -4707,7 +4631,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>4</v>
@@ -4742,7 +4666,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>5</v>
@@ -4777,7 +4701,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -4812,7 +4736,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
@@ -4847,7 +4771,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2</v>
@@ -4882,7 +4806,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>3</v>
@@ -4917,7 +4841,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4</v>
@@ -4952,7 +4876,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
@@ -4987,7 +4911,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>6</v>
@@ -5022,7 +4946,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>7</v>
@@ -5057,7 +4981,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -5092,7 +5016,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -5127,7 +5051,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2</v>
@@ -5162,7 +5086,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -5197,7 +5121,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
@@ -5232,7 +5156,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -5267,7 +5191,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>6</v>
@@ -5302,7 +5226,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>7</v>
@@ -5337,7 +5261,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>8</v>
@@ -5372,7 +5296,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>9</v>
@@ -5407,7 +5331,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>10</v>
@@ -5442,7 +5366,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>11</v>
@@ -5477,7 +5401,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>12</v>
@@ -5512,7 +5436,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>13</v>
@@ -5547,7 +5471,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>14</v>
@@ -5582,7 +5506,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>15</v>
@@ -5617,7 +5541,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>16</v>
@@ -5652,7 +5576,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>17</v>
@@ -5687,7 +5611,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>18</v>
@@ -5722,7 +5646,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>19</v>
@@ -5757,7 +5681,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>20</v>
@@ -5792,7 +5716,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>21</v>
@@ -5827,7 +5751,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0</v>
@@ -5862,7 +5786,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1</v>
@@ -5897,7 +5821,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2</v>
@@ -5932,7 +5856,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>3</v>
@@ -5967,7 +5891,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>4</v>
@@ -6002,7 +5926,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>5</v>
@@ -6037,7 +5961,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>6</v>
@@ -6072,7 +5996,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>7</v>
@@ -6107,7 +6031,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>8</v>
@@ -6142,7 +6066,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>9</v>
@@ -6177,7 +6101,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>10</v>
@@ -6212,7 +6136,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>11</v>
@@ -6247,7 +6171,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>12</v>
@@ -6282,7 +6206,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>13</v>
@@ -6317,7 +6241,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>14</v>
@@ -6352,7 +6276,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>15</v>
@@ -6387,7 +6311,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>16</v>
@@ -6422,7 +6346,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>17</v>
@@ -6457,7 +6381,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>18</v>
@@ -6492,7 +6416,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>19</v>
@@ -6527,7 +6451,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>20</v>
@@ -6562,7 +6486,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>21</v>
@@ -6614,7 +6538,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:K100"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B:B A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6627,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -7394,7 +7318,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7429,7 +7353,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
@@ -7464,7 +7388,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2</v>
@@ -7499,7 +7423,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>3</v>
@@ -7534,7 +7458,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7569,7 +7493,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -7604,7 +7528,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2</v>
@@ -7639,7 +7563,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>3</v>
@@ -7674,7 +7598,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -7709,7 +7633,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -7744,7 +7668,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2</v>
@@ -7779,7 +7703,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3</v>
@@ -7814,7 +7738,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -7849,7 +7773,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -7884,7 +7808,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -7919,7 +7843,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3</v>
@@ -7954,7 +7878,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -7989,7 +7913,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -8024,7 +7948,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2</v>
@@ -8059,7 +7983,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>3</v>
@@ -8094,7 +8018,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -8129,7 +8053,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -8164,7 +8088,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2</v>
@@ -8199,7 +8123,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>3</v>
@@ -8234,7 +8158,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>4</v>
@@ -8269,7 +8193,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>5</v>
@@ -8304,7 +8228,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -8339,7 +8263,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
@@ -8374,7 +8298,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2</v>
@@ -8409,7 +8333,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>3</v>
@@ -8444,7 +8368,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4</v>
@@ -8479,7 +8403,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
@@ -8514,7 +8438,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>6</v>
@@ -8549,7 +8473,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>7</v>
@@ -8584,7 +8508,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -8619,7 +8543,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -8654,7 +8578,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2</v>
@@ -8689,7 +8613,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -8724,7 +8648,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
@@ -8759,7 +8683,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -8794,7 +8718,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>6</v>
@@ -8829,7 +8753,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>7</v>
@@ -8864,7 +8788,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>8</v>
@@ -8899,7 +8823,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>9</v>
@@ -8934,7 +8858,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>10</v>
@@ -8969,7 +8893,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>11</v>
@@ -9004,7 +8928,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>12</v>
@@ -9039,7 +8963,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>13</v>
@@ -9074,7 +8998,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>14</v>
@@ -9109,7 +9033,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>15</v>
@@ -9144,7 +9068,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>16</v>
@@ -9179,7 +9103,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>17</v>
@@ -9214,7 +9138,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>18</v>
@@ -9249,7 +9173,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>19</v>
@@ -9284,7 +9208,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>20</v>
@@ -9319,7 +9243,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>21</v>
@@ -9354,7 +9278,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0</v>
@@ -9389,7 +9313,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1</v>
@@ -9424,7 +9348,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2</v>
@@ -9459,7 +9383,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>3</v>
@@ -9494,7 +9418,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>4</v>
@@ -9529,7 +9453,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>5</v>
@@ -9564,7 +9488,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>6</v>
@@ -9599,7 +9523,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>7</v>
@@ -9634,7 +9558,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>8</v>
@@ -9669,7 +9593,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>9</v>
@@ -9704,7 +9628,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>10</v>
@@ -9739,7 +9663,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>11</v>
@@ -9774,7 +9698,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>12</v>
@@ -9809,7 +9733,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>13</v>
@@ -9844,7 +9768,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>14</v>
@@ -9879,7 +9803,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>15</v>
@@ -9914,7 +9838,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>16</v>
@@ -9949,7 +9873,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>17</v>
@@ -9984,7 +9908,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>18</v>
@@ -10019,7 +9943,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>19</v>
@@ -10054,7 +9978,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>20</v>
@@ -10089,7 +10013,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>21</v>
@@ -10141,7 +10065,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:K100 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B:B A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10279,7 +10203,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>16569.27</v>
@@ -10311,7 +10235,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1274975.49</v>
@@ -10343,7 +10267,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>104781.09</v>
@@ -10375,7 +10299,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>12825</v>
@@ -10407,7 +10331,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1412939.27</v>
@@ -10439,7 +10363,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>222479.78</v>
@@ -10471,7 +10395,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>64325.57</v>
@@ -10503,7 +10427,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>648775.3</v>
@@ -10535,7 +10459,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>471951.56</v>
@@ -10584,7 +10508,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:K100"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B:B A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10722,7 +10646,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>16981.1477200757</v>
@@ -10754,7 +10678,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1286082.27824306</v>
@@ -10786,7 +10710,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>105603.811774959</v>
@@ -10818,7 +10742,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>13316.482755765</v>
@@ -10850,7 +10774,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1422335.34224973</v>
@@ -10882,7 +10806,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>224025.055084452</v>
@@ -10914,7 +10838,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>64846.3392242835</v>
@@ -10946,7 +10870,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>649001.040942981</v>
@@ -10978,7 +10902,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>472183.240209208</v>
